--- a/WebClient/Templates/HotWaterDetailsReport.xlsx
+++ b/WebClient/Templates/HotWaterDetailsReport.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ReestrBKS\WebClient\Templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11400"/>
   </bookViews>
@@ -15,8 +10,8 @@
     <sheet name="Лист1" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -95,8 +90,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,29 +247,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -336,7 +331,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -371,7 +366,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -548,14 +543,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -565,58 +560,58 @@
       <selection activeCell="C9" sqref="C9:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" customWidth="1"/>
-    <col min="2" max="2" width="11.08984375" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" customWidth="1"/>
-    <col min="10" max="10" width="13.36328125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="11.08984375" customWidth="1"/>
-    <col min="13" max="13" width="15.1796875" customWidth="1"/>
-    <col min="14" max="14" width="12.08984375" customWidth="1"/>
-    <col min="15" max="15" width="12.26953125" customWidth="1"/>
-    <col min="16" max="16" width="11.6328125" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16">
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16">
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:16" ht="15.75">
+      <c r="A3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -634,17 +629,17 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -653,7 +648,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16">
       <c r="A6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -670,17 +665,17 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -689,7 +684,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -707,18 +702,18 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -727,7 +722,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -744,44 +739,44 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16">
       <c r="D11" s="6"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="15.75">
       <c r="A12" s="7"/>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="10" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="14" t="s">
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="L12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="11" t="s">
+      <c r="M12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="N12" s="12"/>
-      <c r="O12" s="11" t="s">
+      <c r="N12" s="11"/>
+      <c r="O12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="12"/>
-    </row>
-    <row r="13" spans="1:16" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="P12" s="11"/>
+    </row>
+    <row r="13" spans="1:16" ht="47.25">
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
@@ -812,8 +807,8 @@
       <c r="J13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
       <c r="M13" s="7" t="s">
         <v>18</v>
       </c>
@@ -840,7 +835,7 @@
     <mergeCell ref="L12:L13"/>
     <mergeCell ref="M12:N12"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>